--- a/Individual School Order Sheet.xlsx
+++ b/Individual School Order Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dc18a0d27cb1631/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Downloads\Firefox Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{3EB10C31-F256-4D81-918E-A7EA2C7C716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD7B1BB-34E3-475C-AF3B-20720ECF9005}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AA250-C965-4BA1-A4A4-011197AE2ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC56236B-4F53-4335-A9B0-49010F85CE4C}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="1167">
   <si>
     <t>SKU</t>
   </si>
@@ -3731,16 +3731,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3794,6 +3784,16 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3932,22 +3932,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}" name="OrdersPlaced" displayName="OrdersPlaced" ref="A1:G17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:G17" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}" name="OrdersPlaced" displayName="OrdersPlaced" ref="A1:G2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:G2" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{41191B0D-69C6-46D5-9978-32DFFE3271BC}" name="Order Date" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{49B5B97A-B6A0-42D3-BF14-B80869F3FB9C}" name="Supplier Order Date" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{49B5B97A-B6A0-42D3-BF14-B80869F3FB9C}" name="Supplier Order Date" dataDxfId="11">
       <calculatedColumnFormula array="1">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E2D49A7E-EBFB-4D91-BA4E-D41668A65A0A}" name="Item Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1638FEDD-256E-4393-B485-EC2F8AA3259B}" name="Quantity" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C8DCF149-E7D4-42A7-8F67-5FE02D28B9C4}" name="Supplier" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{E2D49A7E-EBFB-4D91-BA4E-D41668A65A0A}" name="Item Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{1638FEDD-256E-4393-B485-EC2F8AA3259B}" name="Quantity" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C8DCF149-E7D4-42A7-8F67-5FE02D28B9C4}" name="Supplier" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{614AA93F-5C12-4B22-893F-DEC8EE26BAE1}" name="SKU" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{614AA93F-5C12-4B22-893F-DEC8EE26BAE1}" name="SKU" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2E3D529D-0EE2-47A4-B28E-1A8D395B5E76}" name="Category" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{2E3D529D-0EE2-47A4-B28E-1A8D395B5E76}" name="Category" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3973,10 +3973,10 @@
     <sortCondition descending="1" ref="D1:D573"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE6ECFF-0BCE-4CE5-99E9-FFA2CBE9789E}" uniqueName="1" name="SKU" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{859E8721-BC53-4398-BC87-2FB7CC7F136C}" uniqueName="2" name="Description" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{759188AF-47D2-496A-9A05-410A5045FAFD}" uniqueName="3" name="Category" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{90599813-C561-441D-A613-D4C488804369}" uniqueName="4" name="Supplier" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9CE6ECFF-0BCE-4CE5-99E9-FFA2CBE9789E}" uniqueName="1" name="SKU" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{859E8721-BC53-4398-BC87-2FB7CC7F136C}" uniqueName="2" name="Description" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{759188AF-47D2-496A-9A05-410A5045FAFD}" uniqueName="3" name="Category" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{90599813-C561-441D-A613-D4C488804369}" uniqueName="4" name="Supplier" queryTableFieldId="4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4299,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F21C2-2A5D-40AF-926B-B71178EA55C5}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,440 +4338,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45975</v>
-      </c>
-      <c r="B2" s="8" cm="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="str" cm="1">
         <f t="array" ref="B2">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45976</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
+        <v>Order not yet placed</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="G2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45977</v>
-      </c>
-      <c r="B3" s="8" t="str" cm="1">
-        <f t="array" ref="B3">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="9">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>45977</v>
-      </c>
-      <c r="B4" s="8" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45977</v>
-      </c>
-      <c r="B5" s="8" t="str" cm="1">
-        <f t="array" ref="B5">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>410</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45977</v>
-      </c>
-      <c r="B6" s="8" cm="1">
-        <f t="array" ref="B6">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1451A</v>
-      </c>
-      <c r="G6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B7" s="8" t="str" cm="1">
-        <f t="array" ref="B7">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31622</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B8" s="8" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31625</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B9" s="8" t="str" cm="1">
-        <f t="array" ref="B9">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1909</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B10" s="8" cm="1">
-        <f t="array" ref="B10">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1055</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B11" s="8" t="str" cm="1">
-        <f t="array" ref="B11">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31646</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45985</v>
-      </c>
-      <c r="B12" s="8" cm="1">
-        <f t="array" ref="B12">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>14581AP</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45985</v>
-      </c>
-      <c r="B13" s="8" t="str" cm="1">
-        <f t="array" ref="B13">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>2041</v>
-      </c>
-      <c r="G13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B14" s="8" t="str" cm="1">
-        <f t="array" ref="B14">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>415</v>
-      </c>
-      <c r="G14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B15" s="8" t="str" cm="1">
-        <f t="array" ref="B15">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>411</v>
-      </c>
-      <c r="G15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45987</v>
-      </c>
-      <c r="B16" s="8" t="str" cm="1">
-        <f t="array" ref="B16">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>410</v>
-      </c>
-      <c r="G16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45996</v>
-      </c>
-      <c r="B17" s="8" t="str" cm="1">
-        <f t="array" ref="B17">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C17" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1451A</v>
-      </c>
-      <c r="G17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
+        <v>Item description missing or invalid</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{23FC9C2A-3115-48C2-B705-4D2979C7C798}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{23FC9C2A-3115-48C2-B705-4D2979C7C798}">
       <formula1>ItemDescriptions</formula1>
     </dataValidation>
   </dataValidations>
@@ -4787,7 +4376,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,302 +4413,104 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" cm="1">
-        <f t="array" ref="A2:E13">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(OrdersPlaced[],1,3,4,6,5),(OrdersPlaced[Supplier Order Date]="Order not yet placed") * (OrdersPlaced[Item Description]&lt;&gt;""),"All orders have been placed"),5,-1)</f>
-        <v>45977</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <v>Dragon Bahng Mahng Ee Black Adult</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>31640</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2:H10">_xlfn.GROUPBY(INDEX(_xlfn.ANCHORARRAY($A$2),,4),INDEX(_xlfn.ANCHORARRAY($A$2),,3),_xleta.SUM,0,0,,INDEX(_xlfn.ANCHORARRAY($A$2),,5)="WMA")</f>
-        <v>1909</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="str">
+      <c r="A2" s="5" t="e" cm="1">
+        <f t="array" ref="A2">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(OrdersPlaced[],1,3,4,6,5),(OrdersPlaced[Supplier Order Date]="Order not yet placed") * (OrdersPlaced[Item Description]&lt;&gt;""),"All orders have been placed"),5,-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e" cm="1">
+        <f t="array" ref="G2">_xlfn.GROUPBY(INDEX(_xlfn.ANCHORARRAY($A$2),,4),INDEX(_xlfn.ANCHORARRAY($A$2),,3),_xleta.SUM,0,0,,INDEX(_xlfn.ANCHORARRAY($A$2),,5)="WMA")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" t="e">
         <f>G2&amp;","&amp;H2</f>
-        <v>1909,3</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G2,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Double Kick Pad</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>45977</v>
-      </c>
-      <c r="B3" s="6" t="str">
-        <v>Dragon Bahng Mahng Ee Black Adult</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <v>31640</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2041</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I40" si="0">G3&amp;","&amp;H3</f>
-        <v>2041,1</v>
+        <v>,</v>
       </c>
       <c r="J3" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G3,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Power Vinyl Punch Black Large</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45977</v>
-      </c>
-      <c r="B4" s="6" t="str">
-        <v>ATA Face Shield Small</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="str">
-        <v>410</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G4" t="str">
-        <v>31622</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>31622,3</v>
+        <v>,</v>
       </c>
       <c r="J4" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G4,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Protech Plastic Sword Junior</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>45978</v>
-      </c>
-      <c r="B5" s="6" t="str">
-        <v>Protech Plastic Sword Junior</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <v>31622</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G5" t="str">
-        <v>31625</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>31625,3</v>
+        <v>,</v>
       </c>
       <c r="J5" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G5,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Protech Plastic Sword K4K</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>45978</v>
-      </c>
-      <c r="B6" s="6" t="str">
-        <v>Protech Plastic Sword K4K</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="str">
-        <v>31625</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G6" t="str">
-        <v>31640</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>31640,5</v>
+        <v>,</v>
       </c>
       <c r="J6" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G6,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Dragon Bahng Mahng Ee Black Adult</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45978</v>
-      </c>
-      <c r="B7" s="6" t="str">
-        <v>Double Kick Pad</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <v>1909</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G7" t="str">
-        <v>31646</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>31646,2</v>
+        <v>,</v>
       </c>
       <c r="J7" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G7,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>Dragon Ssahng Nat Black Youth</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>45978</v>
-      </c>
-      <c r="B8" s="6" t="str">
-        <v>Dragon Ssahng Nat Black Youth</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <v>31646</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G8" t="str">
-        <v>410</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>410,3</v>
+        <v>,</v>
       </c>
       <c r="J8" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G8,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>ATA Face Shield Small</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45985</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <v>Power Vinyl Punch Black Large</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <v>2041</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G9" t="str">
-        <v>411</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>411,1</v>
+        <v>,</v>
       </c>
       <c r="J9" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G9,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>ATA Face Shield Large</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>45992</v>
-      </c>
-      <c r="B10" s="6" t="str">
-        <v>ATA Foam Headgear Black Large</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <v>415</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <v>WMA</v>
-      </c>
-      <c r="G10" t="str">
-        <v>415</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>415,1</v>
+        <v>,</v>
       </c>
       <c r="J10" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G10,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
-        <v>ATA Foam Headgear Black Large</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>45992</v>
-      </c>
-      <c r="B11" s="6" t="str">
-        <v>ATA Face Shield Large</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <v>411</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <v>WMA</v>
-      </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>,</v>
@@ -5130,21 +4521,6 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>45987</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <v>ATA Face Shield Small</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="str">
-        <v>410</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <v>WMA</v>
-      </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>,</v>
@@ -5155,21 +4531,6 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>45996</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <v>Single Mouthguard Adult Clear</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <v>1451A</v>
-      </c>
-      <c r="E13" s="6" t="str">
-        <v>Century</v>
-      </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>,</v>
@@ -5464,7 +4825,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,20 +4843,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45976</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45987</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Individual School Order Sheet.xlsx
+++ b/Individual School Order Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dc18a0d27cb1631/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="8_{3EB10C31-F256-4D81-918E-A7EA2C7C716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F470A775-95C9-4395-BEF6-1DE62B020A27}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{3EB10C31-F256-4D81-918E-A7EA2C7C716F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8361CC7-3066-49AC-8FF2-7FAFCAC36F23}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC56236B-4F53-4335-A9B0-49010F85CE4C}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="1167">
   <si>
     <t>SKU</t>
   </si>
@@ -3932,8 +3932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}" name="OrdersPlaced" displayName="OrdersPlaced" ref="A1:G17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:G17" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}" name="OrdersPlaced" displayName="OrdersPlaced" ref="A1:G3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:G3" xr:uid="{5941F55A-796C-4DF2-B71B-DB029BAE2C7A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{41191B0D-69C6-46D5-9978-32DFFE3271BC}" name="Order Date" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{49B5B97A-B6A0-42D3-BF14-B80869F3FB9C}" name="Supplier Order Date" dataDxfId="11">
@@ -4299,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F21C2-2A5D-40AF-926B-B71178EA55C5}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,440 +4338,50 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45975</v>
-      </c>
-      <c r="B2" s="8" cm="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="str" cm="1">
         <f t="array" ref="B2">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
+        <v>Order not yet placed</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="G2" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
+        <v>Item description missing or invalid</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45977</v>
-      </c>
-      <c r="B3" s="8" cm="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="str" cm="1">
         <f t="array" ref="B3">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="9">
-        <v>4</v>
-      </c>
+        <v>Order not yet placed</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="F3" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
+        <v>Item description missing or invalid</v>
       </c>
       <c r="G3" s="9" t="str">
         <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>45977</v>
-      </c>
-      <c r="B4" s="8" cm="1">
-        <f t="array" ref="B4">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31640</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45977</v>
-      </c>
-      <c r="B5" s="8" cm="1">
-        <f t="array" ref="B5">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>410</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45977</v>
-      </c>
-      <c r="B6" s="8" cm="1">
-        <f t="array" ref="B6">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1451A</v>
-      </c>
-      <c r="G6" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B7" s="8" cm="1">
-        <f t="array" ref="B7">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31622</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B8" s="8" cm="1">
-        <f t="array" ref="B8">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31625</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B9" s="8" cm="1">
-        <f t="array" ref="B9">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1909</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B10" s="8" cm="1">
-        <f t="array" ref="B10">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1055</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Other</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B11" s="8" cm="1">
-        <f t="array" ref="B11">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>31646</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Weapons</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45985</v>
-      </c>
-      <c r="B12" s="8" cm="1">
-        <f t="array" ref="B12">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45987</v>
-      </c>
-      <c r="C12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>14581AP</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45985</v>
-      </c>
-      <c r="B13" s="8" cm="1">
-        <f t="array" ref="B13">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>2041</v>
-      </c>
-      <c r="G13" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B14" s="8" cm="1">
-        <f t="array" ref="B14">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>415</v>
-      </c>
-      <c r="G14" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B15" s="8" cm="1">
-        <f t="array" ref="B15">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>411</v>
-      </c>
-      <c r="G15" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45987</v>
-      </c>
-      <c r="B16" s="8" cm="1">
-        <f t="array" ref="B16">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>45997</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>WMA</v>
-      </c>
-      <c r="F16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>410</v>
-      </c>
-      <c r="G16" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45996</v>
-      </c>
-      <c r="B17" s="8" t="str" cm="1">
-        <f t="array" ref="B17">IFERROR(IF(MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))=0,"Order not yet placed",MIN(IF((SupplierOrders[Date Placed]&gt;=OrdersPlaced[[#This Row],[Order Date]]) * (OrdersPlaced[[#This Row],[Supplier]] = SupplierOrders[Supplier]),SupplierOrders[Date Placed],""))),"Order not yet placed")</f>
-        <v>Order not yet placed</v>
-      </c>
-      <c r="C17" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Supplier]),"Item description missing or invalid")</f>
-        <v>Century</v>
-      </c>
-      <c r="F17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[SKU]),"Item description missing or invalid")</f>
-        <v>1451A</v>
-      </c>
-      <c r="G17" t="str">
-        <f>_xlfn.IFNA(_xlfn.XLOOKUP(OrdersPlaced[[#This Row],[Item Description]],InventoryLookup[Description],InventoryLookup[Category]),"Item description missing or invalid")</f>
-        <v>Sparring</v>
+        <v>Item description missing or invalid</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{23FC9C2A-3115-48C2-B705-4D2979C7C798}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{23FC9C2A-3115-48C2-B705-4D2979C7C798}">
       <formula1>ItemDescriptions</formula1>
     </dataValidation>
   </dataValidations>
@@ -4824,29 +4434,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" cm="1">
-        <f t="array" ref="A2:E2">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(OrdersPlaced[],1,3,4,6,5),(OrdersPlaced[Supplier Order Date]="Order not yet placed") * (OrdersPlaced[Item Description]&lt;&gt;""),"All orders have been placed"),5,-1)</f>
-        <v>45996</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <v>Single Mouthguard Adult Clear</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>1451A</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <v>Century</v>
+      <c r="A2" s="5" t="e" cm="1">
+        <f t="array" ref="A2">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(OrdersPlaced[],1,3,4,6,5),(OrdersPlaced[Supplier Order Date]="Order not yet placed") * (OrdersPlaced[Item Description]&lt;&gt;""),"All orders have been placed"),5,-1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" t="e" cm="1">
         <f t="array" ref="G2">_xlfn.GROUPBY(INDEX(_xlfn.ANCHORARRAY($A$2),,4),INDEX(_xlfn.ANCHORARRAY($A$2),,3),_xleta.SUM,0,0,,INDEX(_xlfn.ANCHORARRAY($A$2),,5)="WMA")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="I2" t="e">
         <f>G2&amp;","&amp;H2</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(G2,InventoryLookup[SKU],InventoryLookup[Description]),"")</f>
@@ -5248,7 +4846,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,20 +4864,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45997</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45987</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
